--- a/STROOP TASK PARTICIPANT DATA ANALYSIS.xlsx
+++ b/STROOP TASK PARTICIPANT DATA ANALYSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHRUTI\Desktop\psychopy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76619E92-8F2E-4E9F-81DC-5696FB4128E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FCACBF-F549-4D94-AB2A-6444A0E97FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22464,7 +22464,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
